--- a/waitformerge/AngleVerification.xlsx
+++ b/waitformerge/AngleVerification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="225" windowWidth="21570" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="21570" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,27 +535,27 @@
         <v>223.60679774997897</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E24" si="1">DEGREES(ATAN2(A3, C3))</f>
+        <f t="shared" ref="E3:E14" si="1">DEGREES(ATAN2(A3, C3))</f>
         <v>26.56505117707799</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F24" si="2">197*197-157*157-D3*D3</f>
+        <f t="shared" ref="F3:F14" si="2">197*197-157*157-D3*D3</f>
         <v>-35840</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G24" si="3">-2 *157*D3</f>
+        <f t="shared" ref="G3:G14" si="3">-2 *157*D3</f>
         <v>-70212.534493493396</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H24" si="4">ACOS(F3/G3)</f>
+        <f t="shared" ref="H3:H14" si="4">ACOS(F3/G3)</f>
         <v>1.0350881107046086</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I24" si="5">DEGREES(H3)</f>
+        <f t="shared" ref="I3:I14" si="5">DEGREES(H3)</f>
         <v>59.306180167544198</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J24" si="6">E3+I3</f>
+        <f t="shared" ref="J3:J14" si="6">E3+I3</f>
         <v>85.871231344622188</v>
       </c>
       <c r="K3" s="2"/>

--- a/waitformerge/AngleVerification.xlsx
+++ b/waitformerge/AngleVerification.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Groundhog\Documents\GitHub\RoboticArm_JADO\waitformerge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hu\Documents\GitHub\RoboticArm_JADO\waitformerge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="21570" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="21570" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,23 +426,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" customWidth="1"/>
+    <col min="7" max="7" width="14.1328125" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +476,35 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>100</v>
       </c>
@@ -519,8 +546,40 @@
       <c r="L2" s="2">
         <v>127.44</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <v>100</v>
+      </c>
+      <c r="R2">
+        <f>SQRT(O2 *O2 +Q2 *Q2)</f>
+        <v>141.42135623730951</v>
+      </c>
+      <c r="S2">
+        <f>R2*R2-197*197-157*157</f>
+        <v>-43458</v>
+      </c>
+      <c r="T2">
+        <f>-2*157*197</f>
+        <v>-61858</v>
+      </c>
+      <c r="U2">
+        <f>ACOS(S2/T2)</f>
+        <v>0.79182951358369935</v>
+      </c>
+      <c r="V2">
+        <f>DEGREES(U2)</f>
+        <v>45.368489222242864</v>
+      </c>
+      <c r="Z2">
+        <v>45.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>200</v>
       </c>
@@ -562,8 +621,40 @@
       <c r="L3" s="2">
         <v>85.87</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>200</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R14" si="7">SQRT(O3 *O3 +Q3 *Q3)</f>
+        <v>223.60679774997897</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S14" si="8">R3*R3-197*197-157*157</f>
+        <v>-13458</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T14" si="9">-2*157*197</f>
+        <v>-61858</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U14" si="10">ACOS(S3/T3)</f>
+        <v>1.351479561557942</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V14" si="11">DEGREES(U3)</f>
+        <v>77.434074975461016</v>
+      </c>
+      <c r="Z3">
+        <v>77.430000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>300</v>
       </c>
@@ -605,8 +696,40 @@
       <c r="L4" s="2">
         <v>48.61</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>300</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <v>100</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="7"/>
+        <v>316.22776601683796</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="8"/>
+        <v>36542.000000000015</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="9"/>
+        <v>-61858</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="10"/>
+        <v>2.2027720950870697</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="11"/>
+        <v>126.20954427767916</v>
+      </c>
+      <c r="Z4">
+        <v>126.209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>400</v>
       </c>
@@ -648,8 +771,40 @@
       <c r="L5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>400</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="7"/>
+        <v>412.31056256176606</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="8"/>
+        <v>106542</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="9"/>
+        <v>-61858</v>
+      </c>
+      <c r="U5" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V5" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>500</v>
       </c>
@@ -691,8 +846,40 @@
       <c r="L6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>500</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="7"/>
+        <v>509.90195135927848</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="8"/>
+        <v>196542</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="9"/>
+        <v>-61858</v>
+      </c>
+      <c r="U6" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V6" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>100</v>
       </c>
@@ -734,8 +921,40 @@
       <c r="L7" s="2">
         <v>127.44</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>200</v>
+      </c>
+      <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="7"/>
+        <v>141.42135623730951</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="8"/>
+        <v>-43458</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="9"/>
+        <v>-61858</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="10"/>
+        <v>0.79182951358369935</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="11"/>
+        <v>45.368489222242864</v>
+      </c>
+      <c r="Z7">
+        <v>45.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>100</v>
       </c>
@@ -777,8 +996,40 @@
       <c r="L8" s="2">
         <v>127.44</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>300</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="7"/>
+        <v>141.42135623730951</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="8"/>
+        <v>-43458</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="9"/>
+        <v>-61858</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="10"/>
+        <v>0.79182951358369935</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="11"/>
+        <v>45.368489222242864</v>
+      </c>
+      <c r="Z8">
+        <v>45.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>100</v>
       </c>
@@ -820,8 +1071,40 @@
       <c r="L9" s="2">
         <v>127.44</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>400</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="7"/>
+        <v>141.42135623730951</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="8"/>
+        <v>-43458</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="9"/>
+        <v>-61858</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="10"/>
+        <v>0.79182951358369935</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="11"/>
+        <v>45.368489222242864</v>
+      </c>
+      <c r="Z9">
+        <v>45.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>100</v>
       </c>
@@ -863,8 +1146,40 @@
       <c r="L10" s="2">
         <v>127.44</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <v>500</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="7"/>
+        <v>141.42135623730951</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="8"/>
+        <v>-43458</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="9"/>
+        <v>-61858</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="10"/>
+        <v>0.79182951358369935</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="11"/>
+        <v>45.368489222242864</v>
+      </c>
+      <c r="Z10">
+        <v>45.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>100</v>
       </c>
@@ -906,8 +1221,40 @@
       <c r="L11" s="2">
         <v>122.74</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>100</v>
+      </c>
+      <c r="P11">
+        <v>100</v>
+      </c>
+      <c r="Q11">
+        <v>200</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="7"/>
+        <v>223.60679774997897</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="8"/>
+        <v>-13458</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="9"/>
+        <v>-61858</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="10"/>
+        <v>1.351479561557942</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="11"/>
+        <v>77.434074975461016</v>
+      </c>
+      <c r="Z11">
+        <v>77.430000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>100</v>
       </c>
@@ -949,8 +1296,40 @@
       <c r="L12" s="2">
         <v>101.74</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>100</v>
+      </c>
+      <c r="P12">
+        <v>100</v>
+      </c>
+      <c r="Q12">
+        <v>300</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="7"/>
+        <v>316.22776601683796</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="8"/>
+        <v>36542.000000000015</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="9"/>
+        <v>-61858</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="10"/>
+        <v>2.2027720950870697</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="11"/>
+        <v>126.20954427767916</v>
+      </c>
+      <c r="Z12">
+        <v>126.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>100</v>
       </c>
@@ -992,8 +1371,40 @@
       <c r="L13" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>100</v>
+      </c>
+      <c r="P13">
+        <v>100</v>
+      </c>
+      <c r="Q13">
+        <v>400</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="7"/>
+        <v>412.31056256176606</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="8"/>
+        <v>106542</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="9"/>
+        <v>-61858</v>
+      </c>
+      <c r="U13" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V13" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>100</v>
       </c>
@@ -1035,476 +1446,445 @@
       <c r="L14" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>100</v>
-      </c>
-      <c r="B19">
-        <v>100</v>
-      </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <f>SQRT(A19 *A19 +C19 *C19)</f>
-        <v>141.42135623730951</v>
-      </c>
-      <c r="E19">
-        <f>D19*D19-197*197-157*157</f>
-        <v>-43458</v>
-      </c>
-      <c r="F19">
-        <f>-2*157*197</f>
-        <v>-61858</v>
-      </c>
-      <c r="G19">
-        <f>ACOS(E19/F19)</f>
-        <v>0.79182951358369935</v>
-      </c>
-      <c r="H19">
-        <f>DEGREES(G19)</f>
-        <v>45.368489222242864</v>
-      </c>
-      <c r="L19">
-        <v>45.36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>200</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ref="D20:D31" si="7">SQRT(A20 *A20 +C20 *C20)</f>
-        <v>223.60679774997897</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ref="E20:E31" si="8">D20*D20-197*197-157*157</f>
-        <v>-13458</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ref="F20:F31" si="9">-2*157*197</f>
-        <v>-61858</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ref="G20:G31" si="10">ACOS(E20/F20)</f>
-        <v>1.351479561557942</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ref="H20:H31" si="11">DEGREES(G20)</f>
-        <v>77.434074975461016</v>
-      </c>
-      <c r="L20">
-        <v>77.430000000000007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>300</v>
-      </c>
-      <c r="B21">
-        <v>100</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
+      <c r="O14">
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <v>100</v>
+      </c>
+      <c r="Q14">
+        <v>500</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="7"/>
-        <v>316.22776601683796</v>
-      </c>
-      <c r="E21">
+        <v>509.90195135927848</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="8"/>
-        <v>36542.000000000015</v>
-      </c>
-      <c r="F21">
+        <v>196542</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="9"/>
         <v>-61858</v>
       </c>
-      <c r="G21">
+      <c r="U14" t="e">
         <f t="shared" si="10"/>
-        <v>2.2027720950870697</v>
-      </c>
-      <c r="H21">
+        <v>#NUM!</v>
+      </c>
+      <c r="V14" t="e">
         <f t="shared" si="11"/>
-        <v>126.20954427767916</v>
-      </c>
-      <c r="L21">
-        <v>126.209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D15:D26" si="12">SQRT(A16 *A16 +C16 *C16)</f>
+        <v>100</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" ref="E15:E26" si="13">DEGREES(ATAN2(A16, C16))</f>
+        <v>90</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" ref="F15:F26" si="14">197*197-157*157-D16*D16</f>
+        <v>4160</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ref="G15:G26" si="15">-2 *157*D16</f>
+        <v>-31400</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" ref="H15:H26" si="16">ACOS(F16/G16)</f>
+        <v>1.7036710574702534</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" ref="I15:I26" si="17">DEGREES(H16)</f>
+        <v>97.613161271635434</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" ref="J15:J26" si="18">E16+I16</f>
+        <v>187.61316127163542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>200</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>200</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="12"/>
+        <v>282.84271247461902</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="14"/>
+        <v>-65840</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="15"/>
+        <v>-88812.611717030377</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="16"/>
+        <v>0.73573726106544579</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="17"/>
+        <v>42.154639889564869</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="18"/>
+        <v>87.154639889564862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>300</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>300</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="12"/>
+        <v>424.26406871192853</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="14"/>
+        <v>-165840</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="15"/>
+        <v>-133218.91757554555</v>
+      </c>
+      <c r="H18" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I18" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J18" s="1" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>400</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>400</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="12"/>
+        <v>565.68542494923804</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="14"/>
+        <v>-305840</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="15"/>
+        <v>-177625.22343406075</v>
+      </c>
+      <c r="H19" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I19" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J19" s="1" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>500</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>500</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="12"/>
+        <v>707.10678118654755</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="14"/>
+        <v>-485840.00000000006</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="15"/>
+        <v>-222031.52929257593</v>
+      </c>
+      <c r="H20" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I20" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J20" s="1" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="12"/>
+        <v>141.42135623730951</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="14"/>
+        <v>-5840</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="15"/>
+        <v>-44406.305858515188</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="16"/>
+        <v>1.438901392317026</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="17"/>
+        <v>82.442976915263486</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="18"/>
+        <v>127.44297691526349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22">
+        <v>200</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="12"/>
+        <v>223.60679774997897</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="13"/>
+        <v>26.56505117707799</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="14"/>
+        <v>-35840</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="15"/>
+        <v>-70212.534493493396</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="16"/>
+        <v>1.0350881107046086</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="17"/>
+        <v>59.306180167544198</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="18"/>
+        <v>85.871231344622188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>300</v>
+      </c>
+      <c r="B23">
+        <v>300</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="12"/>
+        <v>316.22776601683796</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="13"/>
+        <v>18.43494882292201</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="14"/>
+        <v>-85840.000000000015</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="15"/>
+        <v>-99295.518529287117</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="16"/>
+        <v>0.52666112024188005</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="17"/>
+        <v>30.175459423491699</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="18"/>
+        <v>48.610408246413712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24">
         <v>400</v>
       </c>
-      <c r="B22">
-        <v>100</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="7"/>
+      <c r="B24">
+        <v>400</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="12"/>
         <v>412.31056256176606</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="8"/>
-        <v>106542</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="9"/>
-        <v>-61858</v>
-      </c>
-      <c r="G22" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H22" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="E24" s="1">
+        <f t="shared" si="13"/>
+        <v>14.036243467926479</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="14"/>
+        <v>-155840</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="15"/>
+        <v>-129465.51664439455</v>
+      </c>
+      <c r="H24" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I24" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J24" s="1" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25">
         <v>500</v>
       </c>
-      <c r="B23">
-        <v>100</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="7"/>
+      <c r="B25">
+        <v>500</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="12"/>
         <v>509.90195135927848</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="8"/>
-        <v>196542</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="9"/>
-        <v>-61858</v>
-      </c>
-      <c r="G23" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H23" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>100</v>
-      </c>
-      <c r="B24">
+      <c r="E25" s="1">
+        <f t="shared" si="13"/>
+        <v>11.309932474020215</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="14"/>
+        <v>-245840</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="15"/>
+        <v>-160109.21272681345</v>
+      </c>
+      <c r="H25" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I25" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J25" s="1" t="e">
+        <f t="shared" si="18"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26">
         <v>200</v>
       </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="7"/>
-        <v>141.42135623730951</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="8"/>
-        <v>-43458</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="9"/>
-        <v>-61858</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="10"/>
-        <v>0.79182951358369935</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="11"/>
-        <v>45.368489222242864</v>
-      </c>
-      <c r="L24">
-        <v>45.36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>100</v>
-      </c>
-      <c r="B25">
-        <v>300</v>
-      </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="7"/>
-        <v>141.42135623730951</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="8"/>
-        <v>-43458</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="9"/>
-        <v>-61858</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="10"/>
-        <v>0.79182951358369935</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="11"/>
-        <v>45.368489222242864</v>
-      </c>
-      <c r="L25">
-        <v>45.36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>100</v>
-      </c>
       <c r="B26">
-        <v>400</v>
-      </c>
-      <c r="C26">
-        <v>100</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="7"/>
-        <v>141.42135623730951</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="8"/>
-        <v>-43458</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="9"/>
-        <v>-61858</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="10"/>
-        <v>0.79182951358369935</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="11"/>
-        <v>45.368489222242864</v>
-      </c>
-      <c r="L26">
-        <v>45.36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>100</v>
-      </c>
-      <c r="B27">
-        <v>500</v>
-      </c>
-      <c r="C27">
-        <v>100</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="7"/>
-        <v>141.42135623730951</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="8"/>
-        <v>-43458</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="9"/>
-        <v>-61858</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="10"/>
-        <v>0.79182951358369935</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="11"/>
-        <v>45.368489222242864</v>
-      </c>
-      <c r="L27">
-        <v>45.36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>100</v>
-      </c>
-      <c r="B28">
-        <v>100</v>
-      </c>
-      <c r="C28">
-        <v>200</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="7"/>
-        <v>223.60679774997897</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="8"/>
-        <v>-13458</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="9"/>
-        <v>-61858</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="10"/>
-        <v>1.351479561557942</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="11"/>
-        <v>77.434074975461016</v>
-      </c>
-      <c r="L28">
-        <v>77.430000000000007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>100</v>
-      </c>
-      <c r="B29">
-        <v>100</v>
-      </c>
-      <c r="C29">
-        <v>300</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="7"/>
-        <v>316.22776601683796</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="8"/>
-        <v>36542.000000000015</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="9"/>
-        <v>-61858</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="10"/>
-        <v>2.2027720950870697</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="11"/>
-        <v>126.20954427767916</v>
-      </c>
-      <c r="L29">
-        <v>126.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>100</v>
-      </c>
-      <c r="B30">
-        <v>100</v>
-      </c>
-      <c r="C30">
-        <v>400</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="7"/>
-        <v>412.31056256176606</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="8"/>
-        <v>106542</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="9"/>
-        <v>-61858</v>
-      </c>
-      <c r="G30" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H30" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>100</v>
-      </c>
-      <c r="B31">
-        <v>100</v>
-      </c>
-      <c r="C31">
-        <v>500</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="7"/>
-        <v>509.90195135927848</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="8"/>
-        <v>196542</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="9"/>
-        <v>-61858</v>
-      </c>
-      <c r="G31" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H31" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L31" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/waitformerge/AngleVerification.xlsx
+++ b/waitformerge/AngleVerification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="21570" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="21570" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,6 +121,958 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$15:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>103.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130.19999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$15:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62D7-4886-A768-18E6DA69D0C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="394837264"/>
+        <c:axId val="394840216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="394837264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394840216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="394840216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394837264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>511969</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>111919</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>64294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDAB127F-DBD7-4833-9092-86D145827316}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,7 +1375,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -507,8 +1459,8 @@
         <v>1.8907435336362468</v>
       </c>
       <c r="L2">
-        <f>DEGREES(K2)</f>
-        <v>108.33162461900855</v>
+        <f>DEGREES(K2)+90</f>
+        <v>198.33162461900855</v>
       </c>
       <c r="N2">
         <v>108.33</v>
@@ -556,8 +1508,8 @@
         <v>1.3528320673328631</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L6" si="7">DEGREES(K3)</f>
-        <v>77.511567848131065</v>
+        <f t="shared" ref="L3:L6" si="7">DEGREES(K3)+90</f>
+        <v>167.51156784813105</v>
       </c>
       <c r="N3">
         <v>77.510000000000005</v>
@@ -606,7 +1558,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="7"/>
-        <v>40.581092475714648</v>
+        <v>130.58109247571466</v>
       </c>
       <c r="N4">
         <v>40.58</v>
@@ -654,7 +1606,7 @@
         <v>#NUM!</v>
       </c>
       <c r="L5" t="e">
-        <f t="shared" si="7"/>
+        <f>DEGREES(K5)+90</f>
         <v>#NUM!</v>
       </c>
       <c r="N5" t="s">
@@ -831,8 +1783,13 @@
         <v>12</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
+      <c r="J15" s="1">
+        <f>13.6+90</f>
+        <v>103.6</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
@@ -858,13 +1815,18 @@
         <v>0.99930861151086614</v>
       </c>
       <c r="H16" s="1">
-        <f>DEGREES((G16))</f>
-        <v>57.256165870651024</v>
+        <f>DEGREES((G16))-180</f>
+        <v>-122.74383412934898</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J16" s="1">
+        <v>151.1</v>
+      </c>
+      <c r="K16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>200</v>
       </c>
@@ -887,13 +1849,18 @@
         <v>1.514864941796402</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" ref="H17:H20" si="11">DEGREES((G17))</f>
-        <v>86.795367697264936</v>
+        <f t="shared" ref="H17:H20" si="11">DEGREES((G17))-180</f>
+        <v>-93.204632302735064</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J17" s="1">
+        <v>52.2</v>
+      </c>
+      <c r="K17">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>300</v>
       </c>
@@ -917,12 +1884,17 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" si="11"/>
-        <v>138.79876054515537</v>
+        <v>-41.201239454844625</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J18" s="1">
+        <v>87</v>
+      </c>
+      <c r="K18" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>400</v>
       </c>
@@ -949,9 +1921,14 @@
         <v>#NUM!</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J19" s="1">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="K19" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>500</v>
       </c>
@@ -980,7 +1957,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -988,7 +1965,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -996,7 +1973,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1004,7 +1981,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1012,7 +1989,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1023,5 +2000,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/waitformerge/AngleVerification.xlsx
+++ b/waitformerge/AngleVerification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="21570" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="21570" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,6 +138,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>J2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -478,7 +503,402 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$38:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-23.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-68.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-104.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$38:$K$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AA2-4DE7-B929-ABABA20F6955}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="336487832"/>
+        <c:axId val="334768968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="336487832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334768968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="334768968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336487832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1034,20 +1454,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>511969</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>35719</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1135857</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>111919</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>64294</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>626269</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2381</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1067,6 +2003,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>678656</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD02FE22-D057-4B91-A7C0-BEC94E62B971}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1372,10 +2344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="D20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1997,6 +2969,46 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
+    <row r="38" spans="10:11" x14ac:dyDescent="0.45">
+      <c r="J38">
+        <v>-23.5</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11" x14ac:dyDescent="0.45">
+      <c r="J39">
+        <v>31.5</v>
+      </c>
+      <c r="K39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11" x14ac:dyDescent="0.45">
+      <c r="J40">
+        <v>-68.7</v>
+      </c>
+      <c r="K40">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11" x14ac:dyDescent="0.45">
+      <c r="J41">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="K41">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="10:11" x14ac:dyDescent="0.45">
+      <c r="J42">
+        <v>-104.9</v>
+      </c>
+      <c r="K42">
+        <v>-90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
